--- a/data/meta_data/plate16_setup_final.xlsx
+++ b/data/meta_data/plate16_setup_final.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Dropbox/GLNE_07_Preservation/data/meta_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Documents/Preservation_Bias/data/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83785AD7-E103-F84D-80C0-622FB95185CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5387CCC6-B2E2-4A4A-A559-A6DAA5A349CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17200" yWindow="14820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate16_setup_final" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="112">
   <si>
     <t>sample_ID</t>
   </si>
@@ -49,284 +50,320 @@
     <t>Normal</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>10B</t>
+  </si>
+  <si>
+    <t>10C</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>11C</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>12C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>13A</t>
+  </si>
+  <si>
+    <t>13B</t>
+  </si>
+  <si>
+    <t>13C</t>
+  </si>
+  <si>
+    <t>14A</t>
+  </si>
+  <si>
+    <t>14B</t>
+  </si>
+  <si>
+    <t>14C</t>
+  </si>
+  <si>
+    <t>15A</t>
+  </si>
+  <si>
+    <t>15B</t>
+  </si>
+  <si>
+    <t>15C</t>
+  </si>
+  <si>
+    <t>16A</t>
+  </si>
+  <si>
+    <t>16B</t>
+  </si>
+  <si>
+    <t>16C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>17A</t>
+  </si>
+  <si>
+    <t>17B</t>
+  </si>
+  <si>
+    <t>17C</t>
+  </si>
+  <si>
+    <t>18A</t>
+  </si>
+  <si>
+    <t>18B</t>
+  </si>
+  <si>
+    <t>18C</t>
+  </si>
+  <si>
+    <t>19A</t>
+  </si>
+  <si>
+    <t>19B</t>
+  </si>
+  <si>
+    <t>19C</t>
+  </si>
+  <si>
+    <t>20A</t>
+  </si>
+  <si>
+    <t>20B</t>
+  </si>
+  <si>
+    <t>20C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>21A</t>
+  </si>
+  <si>
+    <t>21B</t>
+  </si>
+  <si>
+    <t>21C</t>
+  </si>
+  <si>
+    <t>22A</t>
+  </si>
+  <si>
+    <t>22B</t>
+  </si>
+  <si>
+    <t>22C</t>
+  </si>
+  <si>
+    <t>23A</t>
+  </si>
+  <si>
+    <t>23B</t>
+  </si>
+  <si>
+    <t>23C</t>
+  </si>
+  <si>
+    <t>24A</t>
+  </si>
+  <si>
+    <t>24B</t>
+  </si>
+  <si>
+    <t>24C</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>25A</t>
+  </si>
+  <si>
+    <t>25B</t>
+  </si>
+  <si>
+    <t>25C</t>
+  </si>
+  <si>
+    <t>26A</t>
+  </si>
+  <si>
+    <t>26B</t>
+  </si>
+  <si>
+    <t>26C</t>
+  </si>
+  <si>
+    <t>27A</t>
+  </si>
+  <si>
+    <t>27B</t>
+  </si>
+  <si>
+    <t>27C</t>
+  </si>
+  <si>
+    <t>28A</t>
+  </si>
+  <si>
+    <t>28B</t>
+  </si>
+  <si>
+    <t>28C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>29A</t>
+  </si>
+  <si>
+    <t>29B</t>
+  </si>
+  <si>
+    <t>29C</t>
+  </si>
+  <si>
+    <t>30A</t>
+  </si>
+  <si>
+    <t>30B</t>
+  </si>
+  <si>
+    <t>30C</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>buffer3</t>
+  </si>
+  <si>
+    <t>Plate 16</t>
+  </si>
+  <si>
+    <t>*missing</t>
+  </si>
+  <si>
     <t>tube_no</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>5B</t>
-  </si>
-  <si>
-    <t>5C</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>6B</t>
-  </si>
-  <si>
-    <t>6C</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>7B</t>
-  </si>
-  <si>
-    <t>7C</t>
-  </si>
-  <si>
-    <t>8A</t>
-  </si>
-  <si>
-    <t>8B</t>
-  </si>
-  <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>9A</t>
-  </si>
-  <si>
-    <t>9B</t>
-  </si>
-  <si>
-    <t>9C</t>
-  </si>
-  <si>
-    <t>10A</t>
-  </si>
-  <si>
-    <t>10B</t>
-  </si>
-  <si>
-    <t>10C</t>
-  </si>
-  <si>
-    <t>11A</t>
-  </si>
-  <si>
-    <t>11B</t>
-  </si>
-  <si>
-    <t>11C</t>
-  </si>
-  <si>
-    <t>12A</t>
-  </si>
-  <si>
-    <t>12B</t>
-  </si>
-  <si>
-    <t>12C</t>
-  </si>
-  <si>
-    <t>13A</t>
-  </si>
-  <si>
-    <t>13B</t>
-  </si>
-  <si>
-    <t>13C</t>
-  </si>
-  <si>
-    <t>14A</t>
-  </si>
-  <si>
-    <t>14B</t>
-  </si>
-  <si>
-    <t>14C</t>
-  </si>
-  <si>
-    <t>15A</t>
-  </si>
-  <si>
-    <t>15B</t>
-  </si>
-  <si>
-    <t>15C</t>
-  </si>
-  <si>
-    <t>16A</t>
-  </si>
-  <si>
-    <t>16B</t>
-  </si>
-  <si>
-    <t>16C</t>
-  </si>
-  <si>
-    <t>17A</t>
-  </si>
-  <si>
-    <t>17B</t>
-  </si>
-  <si>
-    <t>17C</t>
-  </si>
-  <si>
-    <t>18A</t>
-  </si>
-  <si>
-    <t>18B</t>
-  </si>
-  <si>
-    <t>18C</t>
-  </si>
-  <si>
-    <t>19A</t>
-  </si>
-  <si>
-    <t>19B</t>
-  </si>
-  <si>
-    <t>19C</t>
-  </si>
-  <si>
-    <t>20A</t>
-  </si>
-  <si>
-    <t>20B</t>
-  </si>
-  <si>
-    <t>20C</t>
-  </si>
-  <si>
-    <t>21A</t>
-  </si>
-  <si>
-    <t>21B</t>
-  </si>
-  <si>
-    <t>21C</t>
-  </si>
-  <si>
-    <t>22A</t>
-  </si>
-  <si>
-    <t>22B</t>
-  </si>
-  <si>
-    <t>22C</t>
-  </si>
-  <si>
-    <t>23A</t>
-  </si>
-  <si>
-    <t>23B</t>
-  </si>
-  <si>
-    <t>23C</t>
-  </si>
-  <si>
-    <t>24A</t>
-  </si>
-  <si>
-    <t>24B</t>
-  </si>
-  <si>
-    <t>24C</t>
-  </si>
-  <si>
-    <t>25A</t>
-  </si>
-  <si>
-    <t>25B</t>
-  </si>
-  <si>
-    <t>25C</t>
-  </si>
-  <si>
-    <t>26A</t>
-  </si>
-  <si>
-    <t>26B</t>
-  </si>
-  <si>
-    <t>26C</t>
-  </si>
-  <si>
-    <t>27A</t>
-  </si>
-  <si>
-    <t>27B</t>
-  </si>
-  <si>
-    <t>27C</t>
-  </si>
-  <si>
-    <t>28A</t>
-  </si>
-  <si>
-    <t>28B</t>
-  </si>
-  <si>
-    <t>28C</t>
-  </si>
-  <si>
-    <t>29A</t>
-  </si>
-  <si>
-    <t>29B</t>
-  </si>
-  <si>
-    <t>29C</t>
-  </si>
-  <si>
-    <t>30A</t>
-  </si>
-  <si>
-    <t>30B</t>
-  </si>
-  <si>
-    <t>30C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,8 +498,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,8 +694,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -758,6 +816,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -803,8 +1068,52 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1160,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1188,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1487,7 +1796,7 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1510,7 +1819,7 @@
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1533,10 +1842,10 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>73213367</v>
       </c>
@@ -1556,10 +1865,10 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>73213367</v>
       </c>
@@ -1579,10 +1888,10 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>73213367</v>
       </c>
@@ -1602,10 +1911,10 @@
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>73215966</v>
       </c>
@@ -1625,10 +1934,10 @@
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>73215966</v>
       </c>
@@ -1648,10 +1957,10 @@
         <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>73215966</v>
       </c>
@@ -1671,10 +1980,10 @@
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>73218367</v>
       </c>
@@ -1694,10 +2003,10 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>73218367</v>
       </c>
@@ -1717,10 +2026,10 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>73218367</v>
       </c>
@@ -1740,79 +2049,82 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
         <v>73227567</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="B26" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="16">
+        <v>2</v>
+      </c>
+      <c r="D26" s="16">
+        <v>3</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="16">
         <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
         <v>73227567</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
+      <c r="B27" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="16">
+        <v>2</v>
+      </c>
+      <c r="D27" s="16">
+        <v>3</v>
+      </c>
+      <c r="E27" s="16">
+        <v>2</v>
+      </c>
+      <c r="F27" s="16">
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
         <v>73227567</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
+      <c r="B28" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="16">
+        <v>2</v>
+      </c>
+      <c r="D28" s="16">
+        <v>3</v>
+      </c>
+      <c r="E28" s="16">
+        <v>3</v>
+      </c>
+      <c r="F28" s="16">
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>73229567</v>
       </c>
@@ -1832,10 +2144,10 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>73229567</v>
       </c>
@@ -1855,10 +2167,10 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>73229567</v>
       </c>
@@ -1878,10 +2190,10 @@
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>73233567</v>
       </c>
@@ -1901,7 +2213,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1924,7 +2236,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1947,7 +2259,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1970,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1993,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2016,7 +2328,7 @@
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2039,7 +2351,7 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2062,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2085,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2108,7 +2420,7 @@
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2131,7 +2443,7 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2154,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2177,7 +2489,7 @@
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2200,7 +2512,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2223,7 +2535,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2246,7 +2558,7 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2269,7 +2581,7 @@
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2292,7 +2604,7 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2315,7 +2627,7 @@
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2338,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2361,7 +2673,7 @@
         <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2384,7 +2696,7 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2407,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2430,7 +2742,7 @@
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2453,7 +2765,7 @@
         <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2476,7 +2788,7 @@
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2499,7 +2811,7 @@
         <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2522,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2545,7 +2857,7 @@
         <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2568,7 +2880,7 @@
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2591,7 +2903,7 @@
         <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2614,7 +2926,7 @@
         <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2637,7 +2949,7 @@
         <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2660,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2683,7 +2995,7 @@
         <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2706,7 +3018,7 @@
         <v>41</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2729,7 +3041,7 @@
         <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2752,7 +3064,7 @@
         <v>24</v>
       </c>
       <c r="G69" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2775,7 +3087,7 @@
         <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2798,7 +3110,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2821,7 +3133,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2844,7 +3156,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2867,7 +3179,7 @@
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2890,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2913,7 +3225,7 @@
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2936,7 +3248,7 @@
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2959,7 +3271,7 @@
         <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2982,7 +3294,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3005,7 +3317,7 @@
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3028,7 +3340,7 @@
         <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3051,7 +3363,7 @@
         <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3074,7 +3386,7 @@
         <v>23</v>
       </c>
       <c r="G83" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3097,7 +3409,7 @@
         <v>23</v>
       </c>
       <c r="G84" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3120,7 +3432,7 @@
         <v>23</v>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3143,7 +3455,7 @@
         <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -3166,7 +3478,7 @@
         <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3189,7 +3501,7 @@
         <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3212,7 +3524,7 @@
         <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3235,7 +3547,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3258,7 +3570,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3267,4 +3579,388 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE09F9AD-A9D2-4447-8A2A-B4648071DD22}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="81" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>